--- a/Warehouse-System/Warehouse.xlsx
+++ b/Warehouse-System/Warehouse.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -39,42 +39,30 @@
     <t>Cashewnuts</t>
   </si>
   <si>
-    <t>Coconut</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F6</t>
+    <t>Arvi</t>
+  </si>
+  <si>
+    <t>Jay</t>
+  </si>
+  <si>
+    <t>Shan</t>
+  </si>
+  <si>
+    <t>Arvind</t>
+  </si>
+  <si>
+    <t>arvind.super@gmail.com</t>
+  </si>
+  <si>
+    <t>jayanthputta@gmail.com</t>
+  </si>
+  <si>
+    <t>shantanu.vijay8@gmail.com</t>
   </si>
   <si>
     <t>arvind0422@gmail.com</t>
   </si>
   <si>
-    <t>arvind.super@gmail.com</t>
-  </si>
-  <si>
-    <t>arvithegreat@hotmail.com</t>
-  </si>
-  <si>
-    <t>jayanthputta@gmail.com</t>
-  </si>
-  <si>
-    <t>shantanu.vijay8@gmail.com</t>
-  </si>
-  <si>
     <t>Timestamp</t>
   </si>
   <si>
@@ -84,13 +72,19 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>2017-09-24 22:10:13</t>
+    <t>2017-09-26 19:10:53</t>
+  </si>
+  <si>
+    <t>2017-09-26 19:11:20</t>
+  </si>
+  <si>
+    <t>2017-09-26 19:11:32</t>
   </si>
   <si>
     <t>Price</t>
   </si>
   <si>
-    <t>2017-09-24 22:11:24</t>
+    <t>2017-09-26 19:12:13</t>
   </si>
   <si>
     <t>Nestle</t>
@@ -451,13 +445,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,100 +473,88 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>12341</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>9999999991</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>12345</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3">
+        <v>12342</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>9999999992</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>12343</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>9999999993</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>500</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>12344</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D2">
-        <v>9789062906</v>
-      </c>
-      <c r="E2">
-        <v>90</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>12346</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>9999999999</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>12347</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>9999999990</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>12348</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
       <c r="D5">
-        <v>9999999998</v>
+        <v>9999999994</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -581,61 +563,6 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>12349</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>9999999998</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>12341</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>9781110001</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
         <v>0</v>
       </c>
     </row>
@@ -646,7 +573,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -654,7 +581,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -663,27 +590,61 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>12345</v>
+        <v>12341</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2">
         <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>12341</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>12343</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -701,36 +662,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>41000</v>
+        <v>410000</v>
       </c>
     </row>
   </sheetData>

--- a/Warehouse-System/Warehouse.xlsx
+++ b/Warehouse-System/Warehouse.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -39,6 +39,9 @@
     <t>Cashewnuts</t>
   </si>
   <si>
+    <t>Coconut</t>
+  </si>
+  <si>
     <t>Arvi</t>
   </si>
   <si>
@@ -60,7 +63,7 @@
     <t>shantanu.vijay8@gmail.com</t>
   </si>
   <si>
-    <t>arvind0422@gmail.com</t>
+    <t>A</t>
   </si>
   <si>
     <t>Timestamp</t>
@@ -72,19 +75,16 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>2017-09-26 19:10:53</t>
-  </si>
-  <si>
-    <t>2017-09-26 19:11:20</t>
-  </si>
-  <si>
-    <t>2017-09-26 19:11:32</t>
+    <t>2017-10-02 10:38:48</t>
+  </si>
+  <si>
+    <t>2017-10-02 11:31:09</t>
   </si>
   <si>
     <t>Price</t>
   </si>
   <si>
-    <t>2017-09-26 19:12:13</t>
+    <t>2017-10-02 11:35:05</t>
   </si>
   <si>
     <t>Nestle</t>
@@ -445,13 +445,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,39 +473,45 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>12341</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>9999999991</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>12342</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>9999999992</v>
@@ -519,16 +525,19 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>12343</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>9999999993</v>
@@ -542,19 +551,22 @@
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>12344</v>
-      </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>9999999994</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -563,6 +575,9 @@
         <v>0</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>0</v>
       </c>
     </row>
@@ -573,7 +588,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -581,7 +596,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -590,61 +605,44 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>12341</v>
+        <v>12343</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>12341</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>12343</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -662,16 +660,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
@@ -688,10 +686,10 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>410000</v>
+        <v>20500</v>
       </c>
     </row>
   </sheetData>

--- a/Warehouse-System/Warehouse.xlsx
+++ b/Warehouse-System/Warehouse.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Shan</t>
   </si>
   <si>
-    <t>Arvind</t>
-  </si>
-  <si>
     <t>arvind.super@gmail.com</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
   </si>
   <si>
     <t>shantanu.vijay8@gmail.com</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>Timestamp</t>
@@ -445,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -485,7 +479,7 @@
         <v>12341</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>9999999991</v>
@@ -511,7 +505,7 @@
         <v>12342</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>9999999992</v>
@@ -537,7 +531,7 @@
         <v>12343</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>9999999993</v>
@@ -552,32 +546,6 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
         <v>0</v>
       </c>
     </row>
@@ -596,7 +564,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -605,15 +573,15 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -630,7 +598,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -660,27 +628,27 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>

--- a/Warehouse-System/Warehouse.xlsx
+++ b/Warehouse-System/Warehouse.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -42,6 +42,9 @@
     <t>Coconut</t>
   </si>
   <si>
+    <t>Black pepper</t>
+  </si>
+  <si>
     <t>Arvi</t>
   </si>
   <si>
@@ -75,13 +78,25 @@
     <t>2017-10-02 11:31:09</t>
   </si>
   <si>
+    <t>2017-10-02 17:32:45</t>
+  </si>
+  <si>
     <t>Price</t>
   </si>
   <si>
     <t>2017-10-02 11:35:05</t>
   </si>
   <si>
+    <t>2017-10-02 14:29:10</t>
+  </si>
+  <si>
+    <t>2017-10-02 17:34:18</t>
+  </si>
+  <si>
     <t>Nestle</t>
+  </si>
+  <si>
+    <t>Parle</t>
   </si>
 </sst>
 </file>
@@ -439,13 +454,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,22 +485,25 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>12341</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>9999999991</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -496,16 +514,19 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>12342</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>9999999992</v>
@@ -522,30 +543,36 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>12343</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>9999999993</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
     </row>
@@ -556,7 +583,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -564,7 +591,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -573,18 +600,18 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>12343</v>
@@ -598,10 +625,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>12341</v>
@@ -611,6 +638,23 @@
       </c>
       <c r="E3">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>12343</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -620,7 +664,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -628,27 +672,27 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -658,6 +702,40 @@
       </c>
       <c r="E2">
         <v>20500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>32800</v>
       </c>
     </row>
   </sheetData>
